--- a/biology/Médecine/Ostéonécrose_aseptique/Ostéonécrose_aseptique.xlsx
+++ b/biology/Médecine/Ostéonécrose_aseptique/Ostéonécrose_aseptique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ost%C3%A9on%C3%A9crose_aseptique</t>
+          <t>Ostéonécrose_aseptique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'ostéonécrose aseptique est une maladie osseuse, consistant en une dégénérescence progressive des cellules corticales et médullaires aboutissant finalement à une trame osseuse vide.
 Par convention, le terme d'ostéonécrose aseptique est réservé aux régions épiphysaires.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ost%C3%A9on%C3%A9crose_aseptique</t>
+          <t>Ostéonécrose_aseptique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Étiologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Trauma
 Les médicaments (corticoïdes, antirétroviraux)
@@ -522,7 +536,7 @@
 Les maladies systémiques (lupus érythémateux disséminé, la polyarthrite rhumatoïde)
 La chimiothérapie
 Maladie de décompression
-Des troubles sanguins (anémie falciforme)[1]</t>
+Des troubles sanguins (anémie falciforme)</t>
         </is>
       </c>
     </row>
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ost%C3%A9on%C3%A9crose_aseptique</t>
+          <t>Ostéonécrose_aseptique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,11 +564,13 @@
           <t>Signes et symptômes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Douleurs articulaires
 Gonflement des articulations
-gamme limitée de mouvement[1]</t>
+gamme limitée de mouvement</t>
         </is>
       </c>
     </row>
